--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/机械设备制造业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/机械设备制造业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.119815065457423</v>
+        <v>0.116648158877437</v>
       </c>
       <c r="C2" t="n">
-        <v>0.055230183126378</v>
+        <v>0.058508088887227</v>
       </c>
       <c r="D2" t="n">
-        <v>0.048909846873753</v>
+        <v>0.057833405436585</v>
       </c>
       <c r="E2" t="n">
-        <v>0.282720084042545</v>
+        <v>0.286164601280328</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002854298437601</v>
+        <v>0.003524335906355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.049240405545713</v>
+        <v>0.061750035538309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.105526440942631</v>
+        <v>0.115844086935622</v>
       </c>
       <c r="I2" t="n">
-        <v>0.899685561293926</v>
+        <v>0.876001187128635</v>
       </c>
       <c r="J2" t="n">
-        <v>0.093543508065906</v>
+        <v>0.089352476241628</v>
       </c>
       <c r="K2" t="n">
-        <v>0.15578026006354</v>
+        <v>0.15656629279469</v>
       </c>
       <c r="L2" t="n">
-        <v>0.041198006825619</v>
+        <v>0.044318507559099</v>
       </c>
       <c r="M2" t="n">
-        <v>0.111398597342801</v>
+        <v>0.128648574296915</v>
       </c>
       <c r="N2" t="n">
-        <v>0.197800140257279</v>
+        <v>0.243603262379923</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5873914548784001</v>
+        <v>0.547278326707014</v>
       </c>
       <c r="P2" t="n">
-        <v>0.060515041806679</v>
+        <v>0.071554424191125</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.044670078486898</v>
+        <v>0.05572410292531</v>
       </c>
       <c r="R2" t="n">
-        <v>0.040709756304296</v>
+        <v>0.047912610207471</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.116648158877437</v>
+        <v>0.087576188677049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.058508088887227</v>
+        <v>0.068147638652896</v>
       </c>
       <c r="D3" t="n">
-        <v>0.057833405436585</v>
+        <v>0.050591964084898</v>
       </c>
       <c r="E3" t="n">
-        <v>0.286164601280328</v>
+        <v>0.275868141126938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003524335906355</v>
+        <v>0.009112786737794001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.061750035538309</v>
+        <v>0.081964879718704</v>
       </c>
       <c r="H3" t="n">
-        <v>0.115844086935622</v>
+        <v>0.129378557157705</v>
       </c>
       <c r="I3" t="n">
-        <v>0.876001187128635</v>
+        <v>0.798766329587968</v>
       </c>
       <c r="J3" t="n">
-        <v>0.089352476241628</v>
+        <v>0.082395592225618</v>
       </c>
       <c r="K3" t="n">
-        <v>0.15656629279469</v>
+        <v>0.119002349623776</v>
       </c>
       <c r="L3" t="n">
-        <v>0.044318507559099</v>
+        <v>0.040375865262744</v>
       </c>
       <c r="M3" t="n">
-        <v>0.128648574296915</v>
+        <v>0.121569080461585</v>
       </c>
       <c r="N3" t="n">
-        <v>0.243603262379923</v>
+        <v>0.202163083944937</v>
       </c>
       <c r="O3" t="n">
-        <v>0.547278326707014</v>
+        <v>0.54239340297689</v>
       </c>
       <c r="P3" t="n">
-        <v>0.071554424191125</v>
+        <v>0.102602365563651</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05572410292531</v>
+        <v>0.047941614849637</v>
       </c>
       <c r="R3" t="n">
-        <v>0.047912610207471</v>
+        <v>0.048754815171831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.087576188677049</v>
+        <v>0.085828467711813</v>
       </c>
       <c r="C4" t="n">
-        <v>0.068147638652896</v>
+        <v>0.077505405956541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.050591964084898</v>
+        <v>0.065065342597304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.275868141126938</v>
+        <v>0.271374770101685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009112786737794001</v>
+        <v>0.009730341363898999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.081964879718704</v>
+        <v>0.118590613350027</v>
       </c>
       <c r="H4" t="n">
-        <v>0.129378557157705</v>
+        <v>0.159016253609368</v>
       </c>
       <c r="I4" t="n">
-        <v>0.798766329587968</v>
+        <v>0.855065760588246</v>
       </c>
       <c r="J4" t="n">
-        <v>0.082395592225618</v>
+        <v>0.065632778629652</v>
       </c>
       <c r="K4" t="n">
-        <v>0.119002349623776</v>
+        <v>0.120874647824714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.040375865262744</v>
+        <v>0.048774172644924</v>
       </c>
       <c r="M4" t="n">
-        <v>0.121569080461585</v>
+        <v>0.137211451022833</v>
       </c>
       <c r="N4" t="n">
-        <v>0.202163083944937</v>
+        <v>0.14135229074591</v>
       </c>
       <c r="O4" t="n">
-        <v>0.54239340297689</v>
+        <v>0.462067805721149</v>
       </c>
       <c r="P4" t="n">
-        <v>0.102602365563651</v>
+        <v>0.120306083810445</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.047941614849637</v>
+        <v>0.051620651416964</v>
       </c>
       <c r="R4" t="n">
-        <v>0.048754815171831</v>
+        <v>0.067821458565706</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.085828467711813</v>
+        <v>0.022639161858143</v>
       </c>
       <c r="C5" t="n">
-        <v>0.077505405956541</v>
+        <v>0.132633209141824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.065065342597304</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.271374770101685</v>
-      </c>
+        <v>0.035250116533326</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.009730341363898999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.118590613350027</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.159016253609368</v>
-      </c>
+        <v>0.002706809101207</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.855065760588246</v>
+        <v>0.892206360008193</v>
       </c>
       <c r="J5" t="n">
-        <v>0.065632778629652</v>
+        <v>0.254435714831504</v>
       </c>
       <c r="K5" t="n">
-        <v>0.120874647824714</v>
+        <v>0.091796195437355</v>
       </c>
       <c r="L5" t="n">
-        <v>0.048774172644924</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.137211451022833</v>
-      </c>
+        <v>0.031203248876699</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.14135229074591</v>
+        <v>0.131305334597751</v>
       </c>
       <c r="O5" t="n">
-        <v>0.462067805721149</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.120306083810445</v>
-      </c>
+        <v>0.384242158090543</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.051620651416964</v>
+        <v>0.045536415320561</v>
       </c>
       <c r="R5" t="n">
-        <v>0.067821458565706</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.022639161858143</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.132633209141824</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.035250116533326</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.002706809101207</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.892206360008193</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.254435714831504</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.091796195437355</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.031203248876699</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.131305334597751</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.384242158090543</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.045536415320561</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.040205800302698</v>
       </c>
     </row>
